--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>zer</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr"/>
@@ -822,17 +822,17 @@
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>lait concentré</t>
+          <t>lait en poudre</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr"/>
       <c r="D18" s="21" t="n">
-        <v>34000</v>
+        <v>20000</v>
       </c>
       <c r="E18" s="21" t="n">
         <v>24000</v>
@@ -841,66 +841,26 @@
         <v>0</v>
       </c>
       <c r="G18" s="21" t="n">
-        <v>58000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="inlineStr">
-        <is>
-          <t>256</t>
-        </is>
-      </c>
-      <c r="B19" s="21" t="inlineStr">
-        <is>
-          <t>lait en poudre</t>
-        </is>
-      </c>
-      <c r="C19" s="21" t="inlineStr">
-        <is>
-          <t>310/1</t>
-        </is>
-      </c>
-      <c r="D19" s="21" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E19" s="21" t="n">
-        <v>24000</v>
-      </c>
-      <c r="F19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21" t="n">
-        <v>44000</v>
-      </c>
+      <c r="A19" s="25" t="n"/>
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="25" t="n"/>
+      <c r="D19" s="25" t="n"/>
+      <c r="E19" s="25" t="n"/>
+      <c r="F19" s="25" t="n"/>
+      <c r="G19" s="25" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="inlineStr">
-        <is>
-          <t>257</t>
-        </is>
-      </c>
-      <c r="B20" s="21" t="inlineStr">
-        <is>
-          <t>yaourt</t>
-        </is>
-      </c>
-      <c r="C20" s="21" t="inlineStr">
-        <is>
-          <t>310/2</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="n">
-        <v>19000</v>
-      </c>
-      <c r="E20" s="21" t="n">
-        <v>24000</v>
-      </c>
-      <c r="F20" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21" t="n">
-        <v>43000</v>
-      </c>
+      <c r="A20" s="25" t="n"/>
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="25" t="n"/>
+      <c r="D20" s="25" t="n"/>
+      <c r="E20" s="25" t="n"/>
+      <c r="F20" s="25" t="n"/>
+      <c r="G20" s="25" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="25" t="n"/>

--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -822,7 +822,7 @@
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr"/>
       <c r="D18" s="21" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="E18" s="21" t="n">
         <v>24000</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="21" t="n">
-        <v>44000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="19">

--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>zer</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr"/>
@@ -822,7 +822,7 @@
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">

--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>Socobis</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr"/>
@@ -822,26 +822,26 @@
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>lait en poudre</t>
+          <t>Frego</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr"/>
       <c r="D18" s="21" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="E18" s="21" t="n">
-        <v>24000</v>
+        <v>240000</v>
       </c>
       <c r="F18" s="21" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="21" t="n">
-        <v>204000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="19">

--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -591,7 +591,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Socobis</t>
+          <t>jB</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr"/>
@@ -822,17 +822,17 @@
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Frego</t>
+          <t>Fanta</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr"/>
       <c r="D18" s="21" t="n">
-        <v>150000</v>
+        <v>180000</v>
       </c>
       <c r="E18" s="21" t="n">
         <v>240000</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="21" t="n">
-        <v>390000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="19">

--- a/modele_facture.xlsx
+++ b/modele_facture.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <name val="Calibri"/>
@@ -123,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -152,6 +154,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -591,7 +599,7 @@
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>jB</t>
+          <t>jb</t>
         </is>
       </c>
       <c r="G2" s="6" t="inlineStr"/>
@@ -616,6 +624,7 @@
           <t>Statistique:</t>
         </is>
       </c>
+      <c r="E4" s="5" t="n"/>
       <c r="G4" s="9" t="inlineStr"/>
     </row>
     <row r="5">
@@ -633,6 +642,7 @@
           <t>NIF:</t>
         </is>
       </c>
+      <c r="E6" s="5" t="n"/>
       <c r="G6" s="9" t="inlineStr"/>
     </row>
     <row r="7">
@@ -665,7 +675,7 @@
           <t>Adresse:</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="14" t="inlineStr"/>
     </row>
@@ -737,11 +747,25 @@
       <c r="G13" s="19" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr"/>
+      <c r="A14" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="n">
+        <v>45879</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="E14" s="21" t="n">
+        <v>45879</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
       <c r="G14" s="9" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="inlineStr">
+      <c r="A15" s="22" t="inlineStr">
         <is>
           <t>Réf.</t>
         </is>
@@ -754,65 +778,65 @@
       <c r="G15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="inlineStr">
+      <c r="A16" s="23" t="inlineStr">
         <is>
           <t>Bulletin</t>
         </is>
       </c>
-      <c r="B16" s="22" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>Désignations</t>
         </is>
       </c>
-      <c r="C16" s="22" t="inlineStr">
+      <c r="C16" s="24" t="inlineStr">
         <is>
           <t>N°Acte de</t>
         </is>
       </c>
-      <c r="D16" s="22" t="inlineStr">
+      <c r="D16" s="24" t="inlineStr">
         <is>
           <t>Physico</t>
         </is>
       </c>
-      <c r="E16" s="22" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
         <is>
           <t>Micro-</t>
         </is>
       </c>
-      <c r="F16" s="22" t="inlineStr">
+      <c r="F16" s="24" t="inlineStr">
         <is>
           <t>Toxico-</t>
         </is>
       </c>
-      <c r="G16" s="22" t="inlineStr">
+      <c r="G16" s="24" t="inlineStr">
         <is>
           <t>Sous-total</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="23" t="inlineStr">
+      <c r="A17" s="25" t="inlineStr">
         <is>
           <t>d'analyse</t>
         </is>
       </c>
       <c r="B17" s="14" t="inlineStr"/>
-      <c r="C17" s="24" t="inlineStr">
+      <c r="C17" s="26" t="inlineStr">
         <is>
           <t>prélèvement</t>
         </is>
       </c>
-      <c r="D17" s="24" t="inlineStr">
+      <c r="D17" s="26" t="inlineStr">
         <is>
           <t>chimique</t>
         </is>
       </c>
-      <c r="E17" s="24" t="inlineStr">
+      <c r="E17" s="26" t="inlineStr">
         <is>
           <t>biologique</t>
         </is>
       </c>
-      <c r="F17" s="24" t="inlineStr">
+      <c r="F17" s="26" t="inlineStr">
         <is>
           <t>logique</t>
         </is>
@@ -820,236 +844,236 @@
       <c r="G17" s="14" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B18" s="21" t="inlineStr">
-        <is>
-          <t>Fanta</t>
-        </is>
-      </c>
-      <c r="C18" s="21" t="inlineStr"/>
-      <c r="D18" s="21" t="n">
-        <v>180000</v>
-      </c>
-      <c r="E18" s="21" t="n">
-        <v>240000</v>
-      </c>
-      <c r="F18" s="21" t="n">
+      <c r="A18" s="23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B18" s="23" t="inlineStr">
+        <is>
+          <t>ORANGE</t>
+        </is>
+      </c>
+      <c r="C18" s="23" t="inlineStr"/>
+      <c r="D18" s="23" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E18" s="23" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F18" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="21" t="n">
-        <v>420000</v>
+      <c r="G18" s="23" t="n">
+        <v>42000</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="n"/>
-      <c r="B19" s="25" t="n"/>
-      <c r="C19" s="25" t="n"/>
-      <c r="D19" s="25" t="n"/>
-      <c r="E19" s="25" t="n"/>
-      <c r="F19" s="25" t="n"/>
-      <c r="G19" s="25" t="n"/>
+      <c r="A19" s="27" t="n"/>
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="n"/>
-      <c r="B20" s="25" t="n"/>
-      <c r="C20" s="25" t="n"/>
-      <c r="D20" s="25" t="n"/>
-      <c r="E20" s="25" t="n"/>
-      <c r="F20" s="25" t="n"/>
-      <c r="G20" s="25" t="n"/>
+      <c r="A20" s="27" t="n"/>
+      <c r="B20" s="27" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="n"/>
-      <c r="B21" s="25" t="n"/>
-      <c r="C21" s="25" t="n"/>
-      <c r="D21" s="25" t="n"/>
-      <c r="E21" s="25" t="n"/>
-      <c r="F21" s="25" t="n"/>
-      <c r="G21" s="25" t="n"/>
+      <c r="A21" s="27" t="n"/>
+      <c r="B21" s="27" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="n"/>
-      <c r="B22" s="25" t="n"/>
-      <c r="C22" s="25" t="n"/>
-      <c r="D22" s="25" t="n"/>
-      <c r="E22" s="25" t="n"/>
-      <c r="F22" s="25" t="n"/>
-      <c r="G22" s="25" t="n"/>
+      <c r="A22" s="27" t="n"/>
+      <c r="B22" s="27" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="n"/>
-      <c r="B23" s="25" t="n"/>
-      <c r="C23" s="25" t="n"/>
-      <c r="D23" s="25" t="n"/>
-      <c r="E23" s="25" t="n"/>
-      <c r="F23" s="25" t="n"/>
-      <c r="G23" s="25" t="n"/>
+      <c r="A23" s="27" t="n"/>
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="n"/>
-      <c r="B24" s="25" t="n"/>
-      <c r="C24" s="25" t="n"/>
-      <c r="D24" s="25" t="n"/>
-      <c r="E24" s="25" t="n"/>
-      <c r="F24" s="25" t="n"/>
-      <c r="G24" s="25" t="n"/>
+      <c r="A24" s="27" t="n"/>
+      <c r="B24" s="27" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="n"/>
-      <c r="B25" s="25" t="n"/>
-      <c r="C25" s="25" t="n"/>
-      <c r="D25" s="25" t="n"/>
-      <c r="E25" s="25" t="n"/>
-      <c r="F25" s="25" t="n"/>
-      <c r="G25" s="25" t="n"/>
+      <c r="A25" s="27" t="n"/>
+      <c r="B25" s="27" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="E25" s="27" t="n"/>
+      <c r="F25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="n"/>
-      <c r="B26" s="25" t="n"/>
-      <c r="C26" s="25" t="n"/>
-      <c r="D26" s="25" t="n"/>
-      <c r="E26" s="25" t="n"/>
-      <c r="F26" s="25" t="n"/>
-      <c r="G26" s="25" t="n"/>
+      <c r="A26" s="27" t="n"/>
+      <c r="B26" s="27" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="n"/>
-      <c r="B27" s="25" t="n"/>
-      <c r="C27" s="25" t="n"/>
-      <c r="D27" s="25" t="n"/>
-      <c r="E27" s="25" t="n"/>
-      <c r="F27" s="25" t="n"/>
-      <c r="G27" s="25" t="n"/>
+      <c r="A27" s="27" t="n"/>
+      <c r="B27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="n"/>
-      <c r="B28" s="25" t="n"/>
-      <c r="C28" s="25" t="n"/>
-      <c r="D28" s="25" t="n"/>
-      <c r="E28" s="25" t="n"/>
-      <c r="F28" s="25" t="n"/>
-      <c r="G28" s="25" t="n"/>
+      <c r="A28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="n"/>
-      <c r="B29" s="25" t="n"/>
-      <c r="C29" s="25" t="n"/>
-      <c r="D29" s="25" t="n"/>
-      <c r="E29" s="25" t="n"/>
-      <c r="F29" s="25" t="n"/>
-      <c r="G29" s="25" t="n"/>
+      <c r="A29" s="27" t="n"/>
+      <c r="B29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="n"/>
-      <c r="B30" s="25" t="n"/>
-      <c r="C30" s="25" t="n"/>
-      <c r="D30" s="25" t="n"/>
-      <c r="E30" s="25" t="n"/>
-      <c r="F30" s="25" t="n"/>
-      <c r="G30" s="25" t="n"/>
+      <c r="A30" s="27" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="27" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="n"/>
-      <c r="B31" s="25" t="n"/>
-      <c r="C31" s="25" t="n"/>
-      <c r="D31" s="25" t="n"/>
-      <c r="E31" s="25" t="n"/>
-      <c r="F31" s="25" t="n"/>
-      <c r="G31" s="25" t="n"/>
+      <c r="A31" s="27" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="n"/>
-      <c r="B32" s="25" t="n"/>
-      <c r="C32" s="25" t="n"/>
-      <c r="D32" s="25" t="n"/>
-      <c r="E32" s="25" t="n"/>
-      <c r="F32" s="25" t="n"/>
-      <c r="G32" s="25" t="n"/>
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="n"/>
-      <c r="B33" s="25" t="n"/>
-      <c r="C33" s="25" t="n"/>
-      <c r="D33" s="25" t="n"/>
-      <c r="E33" s="25" t="n"/>
-      <c r="F33" s="25" t="n"/>
-      <c r="G33" s="25" t="n"/>
+      <c r="A33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="n"/>
-      <c r="B34" s="25" t="n"/>
-      <c r="C34" s="25" t="n"/>
-      <c r="D34" s="25" t="n"/>
-      <c r="E34" s="25" t="n"/>
-      <c r="F34" s="25" t="n"/>
-      <c r="G34" s="25" t="n"/>
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="27" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="n"/>
-      <c r="B35" s="25" t="n"/>
-      <c r="C35" s="25" t="n"/>
-      <c r="D35" s="25" t="n"/>
-      <c r="E35" s="25" t="n"/>
-      <c r="F35" s="25" t="n"/>
-      <c r="G35" s="25" t="n"/>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="27" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="n"/>
-      <c r="B36" s="25" t="n"/>
-      <c r="C36" s="25" t="n"/>
-      <c r="D36" s="25" t="n"/>
-      <c r="E36" s="25" t="n"/>
-      <c r="F36" s="25" t="n"/>
-      <c r="G36" s="25" t="n"/>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="n"/>
-      <c r="B37" s="25" t="n"/>
-      <c r="C37" s="25" t="n"/>
-      <c r="D37" s="25" t="n"/>
-      <c r="E37" s="25" t="n"/>
-      <c r="F37" s="25" t="n"/>
-      <c r="G37" s="25" t="n"/>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="n"/>
-      <c r="B38" s="25" t="n"/>
-      <c r="C38" s="25" t="n"/>
-      <c r="D38" s="25" t="n"/>
-      <c r="E38" s="25" t="n"/>
-      <c r="F38" s="25" t="n"/>
-      <c r="G38" s="25" t="n"/>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="n"/>
-      <c r="B39" s="25" t="n"/>
-      <c r="C39" s="25" t="n"/>
-      <c r="D39" s="25" t="n"/>
-      <c r="E39" s="25" t="n"/>
-      <c r="F39" s="25" t="n"/>
-      <c r="G39" s="25" t="n"/>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="n"/>
-      <c r="B40" s="25" t="n"/>
-      <c r="C40" s="25" t="n"/>
-      <c r="D40" s="25" t="n"/>
-      <c r="E40" s="25" t="n"/>
-      <c r="F40" s="25" t="n"/>
-      <c r="G40" s="25" t="n"/>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="26" t="n"/>
-      <c r="B41" s="26" t="n"/>
-      <c r="C41" s="26" t="n"/>
-      <c r="D41" s="26" t="n"/>
-      <c r="E41" s="26" t="n"/>
-      <c r="F41" s="26" t="n"/>
-      <c r="G41" s="26" t="n"/>
+      <c r="A41" s="28" t="n"/>
+      <c r="B41" s="28" t="n"/>
+      <c r="C41" s="28" t="n"/>
+      <c r="D41" s="28" t="n"/>
+      <c r="E41" s="28" t="n"/>
+      <c r="F41" s="28" t="n"/>
+      <c r="G41" s="28" t="n"/>
     </row>
     <row r="42">
       <c r="D42" s="5" t="inlineStr">
@@ -1057,9 +1081,9 @@
           <t>Montant à payer</t>
         </is>
       </c>
-      <c r="G42" s="27" t="inlineStr">
-        <is>
-          <t>Ar</t>
+      <c r="G42" s="29" t="inlineStr">
+        <is>
+          <t>42000 Ar</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1091,7 @@
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arrêtée la présente facture à la somme de : Ariary </t>
+          <t xml:space="preserve">Arrêtée la présente facture à la somme de : QUARANTE-DEUX MILLE Ariary </t>
         </is>
       </c>
     </row>
